--- a/YearlySales.xlsx
+++ b/YearlySales.xlsx
@@ -20,6 +20,27 @@
     <t>Month</t>
   </si>
   <si>
+    <t>House Blend</t>
+  </si>
+  <si>
+    <t>Rich Blend</t>
+  </si>
+  <si>
+    <t>Bold Blend</t>
+  </si>
+  <si>
+    <t>Colombian</t>
+  </si>
+  <si>
+    <t>Arabian Mocha</t>
+  </si>
+  <si>
+    <t>French Roast</t>
+  </si>
+  <si>
+    <t>Espresso</t>
+  </si>
+  <si>
     <t>January</t>
   </si>
   <si>
@@ -54,27 +75,6 @@
   </si>
   <si>
     <t>December</t>
-  </si>
-  <si>
-    <t>House Blend</t>
-  </si>
-  <si>
-    <t>Rich Blend</t>
-  </si>
-  <si>
-    <t>Bold Blend</t>
-  </si>
-  <si>
-    <t>Colombian</t>
-  </si>
-  <si>
-    <t>Arabian Mocha</t>
-  </si>
-  <si>
-    <t>French Roast</t>
-  </si>
-  <si>
-    <t>Espresso</t>
   </si>
 </sst>
 </file>
@@ -103,12 +103,12 @@
       <name val="Helvetica"/>
     </font>
     <font>
-      <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
     </font>
     <font>
+      <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
@@ -129,12 +129,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="12"/>
+        <fgColor indexed="11"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -147,13 +147,28 @@
         <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
         <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
       </bottom>
       <diagonal/>
     </border>
@@ -180,10 +195,10 @@
         <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="12"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -192,10 +207,10 @@
         <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="12"/>
       </top>
       <bottom style="thin">
         <color indexed="10"/>
@@ -204,91 +219,61 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
         <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
@@ -298,7 +283,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -312,31 +297,28 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="3" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="59" fontId="4" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="3" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="59" fontId="4" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="4" fillId="3" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -357,8 +339,8 @@
       <rgbColor rgb="ff000000"/>
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ffa5a5a5"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffffffff"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1452,7 +1434,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:M9"/>
+  <dimension ref="A2:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
@@ -1468,12 +1450,7 @@
     <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
     <col min="8" max="8" width="16.3516" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.3516" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.3516" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.3516" style="1" customWidth="1"/>
-    <col min="12" max="12" width="16.3516" style="1" customWidth="1"/>
-    <col min="13" max="13" width="16.3516" style="1" customWidth="1"/>
-    <col min="14" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="9" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="28" customHeight="1">
@@ -1487,13 +1464,8 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
     </row>
-    <row r="2" ht="21" customHeight="1">
+    <row r="2" ht="20.65" customHeight="1">
       <c r="A2" t="s" s="3">
         <v>1</v>
       </c>
@@ -1518,389 +1490,399 @@
       <c r="H2" t="s" s="4">
         <v>8</v>
       </c>
-      <c r="I2" t="s" s="4">
+    </row>
+    <row r="3" ht="13.55" customHeight="1">
+      <c r="A3" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="J2" t="s" s="4">
+      <c r="B3" s="6">
+        <v>55200</v>
+      </c>
+      <c r="C3" s="7">
+        <v>46400</v>
+      </c>
+      <c r="D3" s="7">
+        <v>35200</v>
+      </c>
+      <c r="E3" s="7">
+        <v>28700</v>
+      </c>
+      <c r="F3" s="7">
+        <v>22100</v>
+      </c>
+      <c r="G3" s="7">
+        <v>19900</v>
+      </c>
+      <c r="H3" s="8">
+        <v>16800</v>
+      </c>
+    </row>
+    <row r="4" ht="13.55" customHeight="1">
+      <c r="A4" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="K2" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="L2" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="M2" t="s" s="5">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" ht="13.25" customHeight="1">
-      <c r="A3" t="s" s="6">
-        <v>14</v>
-      </c>
-      <c r="B3" s="7">
-        <v>55200</v>
-      </c>
-      <c r="C3" s="8">
+      <c r="B4" s="9">
         <f>B3*1.1</f>
         <v>60720.000000000007</v>
       </c>
-      <c r="D3" s="8">
-        <f>C3*1.08</f>
+      <c r="C4" s="10">
+        <f>C3*1.11</f>
+        <v>51504.000000000007</v>
+      </c>
+      <c r="D4" s="10">
+        <f>D3*1.15</f>
+        <v>40480</v>
+      </c>
+      <c r="E4" s="10">
+        <f>E3*1.07</f>
+        <v>30709</v>
+      </c>
+      <c r="F4" s="10">
+        <f>F3*1.05</f>
+        <v>23205</v>
+      </c>
+      <c r="G4" s="10">
+        <f>G3*1.04</f>
+        <v>20696</v>
+      </c>
+      <c r="H4" s="10">
+        <f>H3*1.25</f>
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="5" ht="13.55" customHeight="1">
+      <c r="A5" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="B5" s="9">
+        <f>B4*1.08</f>
         <v>65577.600000000006</v>
       </c>
-      <c r="E3" s="8">
-        <f>D3*1.01</f>
-        <v>66233.376</v>
-      </c>
-      <c r="F3" s="8">
-        <f>E3*1.02</f>
-        <v>67558.043520000007</v>
-      </c>
-      <c r="G3" s="8">
-        <f>F3*1.08</f>
-        <v>72962.687001600018</v>
-      </c>
-      <c r="H3" s="8">
-        <f>G3*0.95</f>
-        <v>69314.552651520018</v>
-      </c>
-      <c r="I3" s="8">
-        <f>H3*0.92</f>
-        <v>63769.388439398419</v>
-      </c>
-      <c r="J3" s="8">
-        <f>I3*1.07</f>
-        <v>68233.245630156307</v>
-      </c>
-      <c r="K3" s="8">
-        <f>J3*0.94</f>
-        <v>64139.250892346929</v>
-      </c>
-      <c r="L3" s="8">
-        <f>K3*0.99</f>
-        <v>63497.858383423460</v>
-      </c>
-      <c r="M3" s="8">
-        <f>L3*1.02</f>
-        <v>64767.815551091931</v>
-      </c>
-    </row>
-    <row r="4" ht="12.9" customHeight="1">
-      <c r="A4" t="s" s="9">
-        <v>15</v>
-      </c>
-      <c r="B4" s="10">
-        <v>46400</v>
-      </c>
-      <c r="C4" s="11">
-        <f>B4*1.11</f>
-        <v>51504.000000000007</v>
-      </c>
-      <c r="D4" s="11">
+      <c r="C5" s="10">
         <f>C4*1.07</f>
         <v>55109.280000000013</v>
       </c>
-      <c r="E4" s="11">
+      <c r="D5" s="10">
         <f>D4*1.02</f>
+        <v>41289.6</v>
+      </c>
+      <c r="E5" s="10">
+        <f>E4*1.01</f>
+        <v>31016.09</v>
+      </c>
+      <c r="F5" s="10">
+        <f>F4*1.02</f>
+        <v>23669.1</v>
+      </c>
+      <c r="G5" s="10">
+        <f>G4*1.1</f>
+        <v>22765.6</v>
+      </c>
+      <c r="H5" s="10">
+        <f>H4*0.95</f>
+        <v>19950</v>
+      </c>
+    </row>
+    <row r="6" ht="13.55" customHeight="1">
+      <c r="A6" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="B6" s="9">
+        <f>B5*1.01</f>
+        <v>66233.376</v>
+      </c>
+      <c r="C6" s="10">
+        <f>C5*1.02</f>
         <v>56211.465600000018</v>
       </c>
-      <c r="F4" s="11">
-        <f>E4*0.98</f>
-        <v>55087.236288000015</v>
-      </c>
-      <c r="G4" s="11">
-        <f>F4*0.93</f>
-        <v>51231.129747840016</v>
-      </c>
-      <c r="H4" s="11">
-        <f>G4*0.96</f>
-        <v>49181.884557926416</v>
-      </c>
-      <c r="I4" s="11">
-        <f>H4*0.9</f>
-        <v>44263.696102133777</v>
-      </c>
-      <c r="J4" s="11">
-        <f>I4*1.06</f>
-        <v>46919.517868261806</v>
-      </c>
-      <c r="K4" s="11">
-        <f>J4*1.02</f>
-        <v>47857.908225627041</v>
-      </c>
-      <c r="L4" s="11">
-        <f>K4*1.08</f>
-        <v>51686.540883677211</v>
-      </c>
-      <c r="M4" s="11">
-        <f>L4*1.15</f>
-        <v>59439.522016228788</v>
-      </c>
-    </row>
-    <row r="5" ht="12.9" customHeight="1">
-      <c r="A5" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="B5" s="10">
-        <v>35200</v>
-      </c>
-      <c r="C5" s="11">
-        <f>B5*1.15</f>
-        <v>40480</v>
-      </c>
-      <c r="D5" s="11">
-        <f>C5*1.02</f>
-        <v>41289.6</v>
-      </c>
-      <c r="E5" s="11">
+      <c r="D6" s="10">
         <f>D5*0.95</f>
         <v>39225.12</v>
       </c>
-      <c r="F5" s="11">
-        <f>E5*0.92</f>
+      <c r="E6" s="10">
+        <f>E5*1.02</f>
+        <v>31636.4118</v>
+      </c>
+      <c r="F6" s="10">
+        <f>F5*0.9</f>
+        <v>21302.19</v>
+      </c>
+      <c r="G6" s="10">
+        <f>G5*1.11</f>
+        <v>25269.816000000006</v>
+      </c>
+      <c r="H6" s="10">
+        <f>H5*0.91</f>
+        <v>18154.5</v>
+      </c>
+    </row>
+    <row r="7" ht="13.55" customHeight="1">
+      <c r="A7" t="s" s="5">
+        <v>13</v>
+      </c>
+      <c r="B7" s="9">
+        <f>B6*1.02</f>
+        <v>67558.043520000007</v>
+      </c>
+      <c r="C7" s="10">
+        <f>C6*0.98</f>
+        <v>55087.236288000015</v>
+      </c>
+      <c r="D7" s="10">
+        <f>D6*0.92</f>
         <v>36087.1104</v>
       </c>
-      <c r="G5" s="11">
-        <f>F5*0.9</f>
-        <v>32478.39936</v>
-      </c>
-      <c r="H5" s="11">
-        <f>G5*0.94</f>
-        <v>30529.6953984</v>
-      </c>
-      <c r="I5" s="11">
-        <f>H5*0.95</f>
-        <v>29003.21062848</v>
-      </c>
-      <c r="J5" s="11">
-        <f>I5*1.03</f>
-        <v>29873.3069473344</v>
-      </c>
-      <c r="K5" s="11">
-        <f>J5*1.06</f>
-        <v>31665.705364174464</v>
-      </c>
-      <c r="L5" s="11">
-        <f>K5*1.1</f>
-        <v>34832.275900591914</v>
-      </c>
-      <c r="M5" s="11">
-        <f>L5*1.04</f>
-        <v>36225.566936615593</v>
-      </c>
-    </row>
-    <row r="6" ht="12.9" customHeight="1">
-      <c r="A6" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="B6" s="10">
-        <v>28700</v>
-      </c>
-      <c r="C6" s="11">
-        <f>B6*1.07</f>
-        <v>30709</v>
-      </c>
-      <c r="D6" s="11">
-        <f>C6*1.01</f>
-        <v>31016.09</v>
-      </c>
-      <c r="E6" s="11">
-        <f>D6*1.02</f>
-        <v>31636.4118</v>
-      </c>
-      <c r="F6" s="11">
+      <c r="E7" s="10">
         <f>E6*1.06</f>
         <v>33534.596508</v>
       </c>
-      <c r="G6" s="11">
-        <f>F6*0.9</f>
+      <c r="F7" s="10">
+        <f>F6*0.98</f>
+        <v>20876.1462</v>
+      </c>
+      <c r="G7" s="10">
+        <f>G6*1.15</f>
+        <v>29060.2884</v>
+      </c>
+      <c r="H7" s="10">
+        <f>H6*0.9</f>
+        <v>16339.05</v>
+      </c>
+    </row>
+    <row r="8" ht="13.55" customHeight="1">
+      <c r="A8" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="B8" s="9">
+        <f>B7*1.08</f>
+        <v>72962.687001600018</v>
+      </c>
+      <c r="C8" s="10">
+        <f>C7*0.93</f>
+        <v>51231.129747840016</v>
+      </c>
+      <c r="D8" s="10">
+        <f>D7*0.9</f>
+        <v>32478.39936</v>
+      </c>
+      <c r="E8" s="10">
+        <f>E7*0.9</f>
         <v>30181.1368572</v>
       </c>
-      <c r="H6" s="11">
-        <f>G6*0.7</f>
-        <v>21126.79580004</v>
-      </c>
-      <c r="I6" s="11">
-        <f>H6*0.75</f>
-        <v>15845.09685003</v>
-      </c>
-      <c r="J6" s="11">
-        <f>I6*1.2</f>
-        <v>19014.116220036</v>
-      </c>
-      <c r="K6" s="11">
-        <f>J6*1.15</f>
-        <v>21866.2336530414</v>
-      </c>
-      <c r="L6" s="11">
-        <f>K6*1.25</f>
-        <v>27332.792066301750</v>
-      </c>
-      <c r="M6" s="11">
-        <f>L6*1.05</f>
-        <v>28699.431669616839</v>
-      </c>
-    </row>
-    <row r="7" ht="12.9" customHeight="1">
-      <c r="A7" t="s" s="9">
-        <v>18</v>
-      </c>
-      <c r="B7" s="10">
-        <v>22100</v>
-      </c>
-      <c r="C7" s="11">
-        <f>B7*1.05</f>
-        <v>23205</v>
-      </c>
-      <c r="D7" s="11">
-        <f>C7*1.02</f>
-        <v>23669.1</v>
-      </c>
-      <c r="E7" s="11">
-        <f>D7*0.9</f>
-        <v>21302.19</v>
-      </c>
-      <c r="F7" s="11">
-        <f>E7*0.98</f>
-        <v>20876.1462</v>
-      </c>
-      <c r="G7" s="11">
+      <c r="F8" s="10">
         <f>F7*0.94</f>
         <v>19623.577428</v>
       </c>
-      <c r="H7" s="11">
-        <f>G7*0.99</f>
+      <c r="G8" s="10">
+        <f>G7*1.08</f>
+        <v>31385.111472000008</v>
+      </c>
+      <c r="H8" s="10">
+        <f>H7*1.03</f>
+        <v>16829.2215</v>
+      </c>
+    </row>
+    <row r="9" ht="13.55" customHeight="1">
+      <c r="A9" t="s" s="5">
+        <v>15</v>
+      </c>
+      <c r="B9" s="9">
+        <f>B8*0.95</f>
+        <v>69314.552651520018</v>
+      </c>
+      <c r="C9" s="10">
+        <f>C8*0.96</f>
+        <v>49181.884557926416</v>
+      </c>
+      <c r="D9" s="10">
+        <f>D8*0.94</f>
+        <v>30529.6953984</v>
+      </c>
+      <c r="E9" s="10">
+        <f>E8*0.7</f>
+        <v>21126.79580004</v>
+      </c>
+      <c r="F9" s="10">
+        <f>F8*0.99</f>
         <v>19427.34165372</v>
       </c>
-      <c r="I7" s="11">
-        <f>H7*1.06</f>
-        <v>20592.9821529432</v>
-      </c>
-      <c r="J7" s="11">
-        <f>I7*0.94</f>
-        <v>19357.403223766607</v>
-      </c>
-      <c r="K7" s="11">
-        <f>J7*1.08</f>
-        <v>20905.995481667938</v>
-      </c>
-      <c r="L7" s="11">
-        <f>K7*1.001</f>
-        <v>20926.9014771496</v>
-      </c>
-      <c r="M7" s="11">
-        <f>L7*1.07</f>
-        <v>22391.784580550076</v>
-      </c>
-    </row>
-    <row r="8" ht="12.9" customHeight="1">
-      <c r="A8" t="s" s="9">
-        <v>19</v>
-      </c>
-      <c r="B8" s="10">
-        <v>19900</v>
-      </c>
-      <c r="C8" s="11">
-        <f>B8*1.04</f>
-        <v>20696</v>
-      </c>
-      <c r="D8" s="11">
-        <f>C8*1.1</f>
-        <v>22765.6</v>
-      </c>
-      <c r="E8" s="11">
-        <f>D8*1.11</f>
-        <v>25269.816000000006</v>
-      </c>
-      <c r="F8" s="11">
-        <f>E8*1.15</f>
-        <v>29060.2884</v>
-      </c>
-      <c r="G8" s="11">
-        <f>F8*1.08</f>
-        <v>31385.111472000008</v>
-      </c>
-      <c r="H8" s="11">
+      <c r="G9" s="10">
         <f>G8*1.06</f>
         <v>33268.218160320008</v>
       </c>
-      <c r="I8" s="11">
-        <f>H8*1.01</f>
+      <c r="H9" s="10">
+        <f>H8*1.15</f>
+        <v>19353.604725</v>
+      </c>
+    </row>
+    <row r="10" ht="13.55" customHeight="1">
+      <c r="A10" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="B10" s="9">
+        <f>B9*0.92</f>
+        <v>63769.388439398419</v>
+      </c>
+      <c r="C10" s="10">
+        <f>C9*0.9</f>
+        <v>44263.696102133777</v>
+      </c>
+      <c r="D10" s="10">
+        <f>D9*0.95</f>
+        <v>29003.21062848</v>
+      </c>
+      <c r="E10" s="10">
+        <f>E9*0.75</f>
+        <v>15845.09685003</v>
+      </c>
+      <c r="F10" s="10">
+        <f>F9*1.06</f>
+        <v>20592.9821529432</v>
+      </c>
+      <c r="G10" s="10">
+        <f>G9*1.01</f>
         <v>33600.900341923210</v>
       </c>
-      <c r="J8" s="11">
-        <f>I8*0.94</f>
-        <v>31584.846321407815</v>
-      </c>
-      <c r="K8" s="11">
-        <f>J8*0.85</f>
-        <v>26847.119373196641</v>
-      </c>
-      <c r="L8" s="11">
-        <f>K8*0.8</f>
-        <v>21477.695498557314</v>
-      </c>
-      <c r="M8" s="11">
-        <f>L8*1.01</f>
-        <v>21692.472453542887</v>
-      </c>
-    </row>
-    <row r="9" ht="13.25" customHeight="1">
-      <c r="A9" t="s" s="9">
-        <v>20</v>
-      </c>
-      <c r="B9" s="12">
-        <v>16800</v>
-      </c>
-      <c r="C9" s="11">
-        <f>B9*1.25</f>
-        <v>21000</v>
-      </c>
-      <c r="D9" s="11">
-        <f>C9*0.95</f>
-        <v>19950</v>
-      </c>
-      <c r="E9" s="11">
-        <f>D9*0.91</f>
-        <v>18154.5</v>
-      </c>
-      <c r="F9" s="11">
-        <f>E9*0.9</f>
-        <v>16339.05</v>
-      </c>
-      <c r="G9" s="11">
-        <f>F9*1.03</f>
-        <v>16829.2215</v>
-      </c>
-      <c r="H9" s="11">
-        <f>G9*1.15</f>
-        <v>19353.604725</v>
-      </c>
-      <c r="I9" s="11">
+      <c r="H10" s="10">
         <f>H9*1.05</f>
         <v>20321.28496125</v>
       </c>
-      <c r="J9" s="11">
-        <f>I9*1.08</f>
+    </row>
+    <row r="11" ht="13.55" customHeight="1">
+      <c r="A11" t="s" s="5">
+        <v>17</v>
+      </c>
+      <c r="B11" s="9">
+        <f>B10*1.07</f>
+        <v>68233.245630156307</v>
+      </c>
+      <c r="C11" s="10">
+        <f>C10*1.06</f>
+        <v>46919.517868261806</v>
+      </c>
+      <c r="D11" s="10">
+        <f>D10*1.03</f>
+        <v>29873.3069473344</v>
+      </c>
+      <c r="E11" s="10">
+        <f>E10*1.2</f>
+        <v>19014.116220036</v>
+      </c>
+      <c r="F11" s="10">
+        <f>F10*0.94</f>
+        <v>19357.403223766607</v>
+      </c>
+      <c r="G11" s="10">
+        <f>G10*0.94</f>
+        <v>31584.846321407815</v>
+      </c>
+      <c r="H11" s="10">
+        <f>H10*1.08</f>
         <v>21946.98775815</v>
       </c>
-      <c r="K9" s="11">
-        <f>J9*1.08</f>
+    </row>
+    <row r="12" ht="13.55" customHeight="1">
+      <c r="A12" t="s" s="5">
+        <v>18</v>
+      </c>
+      <c r="B12" s="9">
+        <f>B11*0.94</f>
+        <v>64139.250892346929</v>
+      </c>
+      <c r="C12" s="10">
+        <f>C11*1.02</f>
+        <v>47857.908225627041</v>
+      </c>
+      <c r="D12" s="10">
+        <f>D11*1.06</f>
+        <v>31665.705364174464</v>
+      </c>
+      <c r="E12" s="10">
+        <f>E11*1.15</f>
+        <v>21866.2336530414</v>
+      </c>
+      <c r="F12" s="10">
+        <f>F11*1.08</f>
+        <v>20905.995481667938</v>
+      </c>
+      <c r="G12" s="10">
+        <f>G11*0.85</f>
+        <v>26847.119373196641</v>
+      </c>
+      <c r="H12" s="10">
+        <f>H11*1.08</f>
         <v>23702.746778802008</v>
       </c>
-      <c r="L9" s="11">
-        <f>K9*1.072</f>
+    </row>
+    <row r="13" ht="13.55" customHeight="1">
+      <c r="A13" t="s" s="5">
+        <v>19</v>
+      </c>
+      <c r="B13" s="9">
+        <f>B12*0.99</f>
+        <v>63497.858383423460</v>
+      </c>
+      <c r="C13" s="10">
+        <f>C12*1.08</f>
+        <v>51686.540883677211</v>
+      </c>
+      <c r="D13" s="10">
+        <f>D12*1.1</f>
+        <v>34832.275900591914</v>
+      </c>
+      <c r="E13" s="10">
+        <f>E12*1.25</f>
+        <v>27332.792066301750</v>
+      </c>
+      <c r="F13" s="10">
+        <f>F12*1.001</f>
+        <v>20926.9014771496</v>
+      </c>
+      <c r="G13" s="10">
+        <f>G12*0.8</f>
+        <v>21477.695498557314</v>
+      </c>
+      <c r="H13" s="10">
+        <f>H12*1.072</f>
         <v>25409.344546875753</v>
       </c>
-      <c r="M9" s="11">
-        <f>L9*1.09</f>
+    </row>
+    <row r="14" ht="13.25" customHeight="1">
+      <c r="A14" t="s" s="11">
+        <v>20</v>
+      </c>
+      <c r="B14" s="9">
+        <f>B13*1.02</f>
+        <v>64767.815551091931</v>
+      </c>
+      <c r="C14" s="10">
+        <f>C13*1.15</f>
+        <v>59439.522016228788</v>
+      </c>
+      <c r="D14" s="10">
+        <f>D13*1.04</f>
+        <v>36225.566936615593</v>
+      </c>
+      <c r="E14" s="10">
+        <f>E13*1.05</f>
+        <v>28699.431669616839</v>
+      </c>
+      <c r="F14" s="10">
+        <f>F13*1.07</f>
+        <v>22391.784580550076</v>
+      </c>
+      <c r="G14" s="10">
+        <f>G13*1.01</f>
+        <v>21692.472453542887</v>
+      </c>
+      <c r="H14" s="10">
+        <f>H13*1.09</f>
         <v>27696.185556094573</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
